--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>18.2185216464177</v>
+        <v>0.381694</v>
       </c>
       <c r="H2">
-        <v>18.2185216464177</v>
+        <v>1.145082</v>
       </c>
       <c r="I2">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J2">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0362080219102572</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N2">
-        <v>0.0362080219102572</v>
+        <v>0.240403</v>
       </c>
       <c r="O2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q2">
-        <v>0.6596566309459871</v>
+        <v>0.03058679422733333</v>
       </c>
       <c r="R2">
-        <v>0.6596566309459871</v>
+        <v>0.275281148046</v>
       </c>
       <c r="S2">
-        <v>0.003774942960869582</v>
+        <v>0.000155567923783167</v>
       </c>
       <c r="T2">
-        <v>0.003774942960869582</v>
+        <v>0.000155567923783167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>18.2185216464177</v>
+        <v>0.381694</v>
       </c>
       <c r="H3">
-        <v>18.2185216464177</v>
+        <v>1.145082</v>
       </c>
       <c r="I3">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J3">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.64556279984885</v>
+        <v>7.647982</v>
       </c>
       <c r="N3">
-        <v>7.64556279984885</v>
+        <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.8209255499037909</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P3">
-        <v>0.8209255499037909</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q3">
-        <v>139.2908513680922</v>
+        <v>2.919188841508</v>
       </c>
       <c r="R3">
-        <v>139.2908513680922</v>
+        <v>26.272699573572</v>
       </c>
       <c r="S3">
-        <v>0.7971041208688533</v>
+        <v>0.01484732737367296</v>
       </c>
       <c r="T3">
-        <v>0.7971041208688533</v>
+        <v>0.01484732737367296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>18.2185216464177</v>
+        <v>0.381694</v>
       </c>
       <c r="H4">
-        <v>18.2185216464177</v>
+        <v>1.145082</v>
       </c>
       <c r="I4">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J4">
-        <v>0.9709822297067873</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.63157409818507</v>
+        <v>0.004539333333333334</v>
       </c>
       <c r="N4">
-        <v>1.63157409818507</v>
+        <v>0.013618</v>
       </c>
       <c r="O4">
-        <v>0.1751866930957443</v>
+        <v>0.0004601227667548901</v>
       </c>
       <c r="P4">
-        <v>0.1751866930957443</v>
+        <v>0.00046012276675489</v>
       </c>
       <c r="Q4">
-        <v>29.72486802551913</v>
+        <v>0.001732636297333333</v>
       </c>
       <c r="R4">
-        <v>29.72486802551913</v>
+        <v>0.015593726676</v>
       </c>
       <c r="S4">
-        <v>0.1701031658770645</v>
+        <v>8.81238581082253E-06</v>
       </c>
       <c r="T4">
-        <v>0.1701031658770645</v>
+        <v>8.81238581082253E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.544459888186948</v>
+        <v>0.381694</v>
       </c>
       <c r="H5">
-        <v>0.544459888186948</v>
+        <v>1.145082</v>
       </c>
       <c r="I5">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J5">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0362080219102572</v>
+        <v>0.009266333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0362080219102572</v>
+        <v>0.027799</v>
       </c>
       <c r="O5">
-        <v>0.003887757000464902</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="P5">
-        <v>0.003887757000464902</v>
+        <v>0.0009392680858436766</v>
       </c>
       <c r="Q5">
-        <v>0.0197138155607292</v>
+        <v>0.003536903835333333</v>
       </c>
       <c r="R5">
-        <v>0.0197138155607292</v>
+        <v>0.031832134518</v>
       </c>
       <c r="S5">
-        <v>0.0001128140395953199</v>
+        <v>1.798909628102919E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001128140395953199</v>
+        <v>1.798909628102919E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.544459888186948</v>
+        <v>0.381694</v>
       </c>
       <c r="H6">
-        <v>0.544459888186948</v>
+        <v>1.145082</v>
       </c>
       <c r="I6">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="J6">
-        <v>0.02901777029321264</v>
+        <v>0.01915224902469766</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.64556279984885</v>
+        <v>2.123561</v>
       </c>
       <c r="N6">
-        <v>7.64556279984885</v>
+        <v>6.370683</v>
       </c>
       <c r="O6">
-        <v>0.8209255499037909</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="P6">
-        <v>0.8209255499037909</v>
+        <v>0.2152515999470071</v>
       </c>
       <c r="Q6">
-        <v>4.162702267131994</v>
+        <v>0.810550492334</v>
       </c>
       <c r="R6">
-        <v>4.162702267131994</v>
+        <v>7.294954431005999</v>
       </c>
       <c r="S6">
-        <v>0.02382142903493747</v>
+        <v>0.004122552245149677</v>
       </c>
       <c r="T6">
-        <v>0.02382142903493747</v>
+        <v>0.004122552245149677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H7">
+        <v>56.855887</v>
+      </c>
+      <c r="I7">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J7">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N7">
+        <v>0.240403</v>
+      </c>
+      <c r="O7">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P7">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q7">
+        <v>1.518702866940111</v>
+      </c>
+      <c r="R7">
+        <v>13.668325802461</v>
+      </c>
+      <c r="S7">
+        <v>0.007724295985300928</v>
+      </c>
+      <c r="T7">
+        <v>0.007724295985300928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H8">
+        <v>56.855887</v>
+      </c>
+      <c r="I8">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J8">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.647982</v>
+      </c>
+      <c r="N8">
+        <v>22.943946</v>
+      </c>
+      <c r="O8">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P8">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q8">
+        <v>144.9442667900113</v>
+      </c>
+      <c r="R8">
+        <v>1304.498401110102</v>
+      </c>
+      <c r="S8">
+        <v>0.737203071404106</v>
+      </c>
+      <c r="T8">
+        <v>0.737203071404106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H9">
+        <v>56.855887</v>
+      </c>
+      <c r="I9">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J9">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.013618</v>
+      </c>
+      <c r="O9">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P9">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q9">
+        <v>0.08602927435177779</v>
+      </c>
+      <c r="R9">
+        <v>0.7742634691660001</v>
+      </c>
+      <c r="S9">
+        <v>0.0004375547007642503</v>
+      </c>
+      <c r="T9">
+        <v>0.0004375547007642502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H10">
+        <v>56.855887</v>
+      </c>
+      <c r="I10">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J10">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.027799</v>
+      </c>
+      <c r="O10">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P10">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q10">
+        <v>0.1756152003014445</v>
+      </c>
+      <c r="R10">
+        <v>1.580536802713</v>
+      </c>
+      <c r="S10">
+        <v>0.0008931989371820673</v>
+      </c>
+      <c r="T10">
+        <v>0.0008931989371820672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.95196233333333</v>
+      </c>
+      <c r="H11">
+        <v>56.855887</v>
+      </c>
+      <c r="I11">
+        <v>0.9509520770949769</v>
+      </c>
+      <c r="J11">
+        <v>0.9509520770949768</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.123561</v>
+      </c>
+      <c r="N11">
+        <v>6.370683</v>
+      </c>
+      <c r="O11">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P11">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q11">
+        <v>40.24564808453567</v>
+      </c>
+      <c r="R11">
+        <v>362.210832760821</v>
+      </c>
+      <c r="S11">
+        <v>0.2046939560676234</v>
+      </c>
+      <c r="T11">
+        <v>0.2046939560676234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.143482</v>
+      </c>
+      <c r="I12">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J12">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N12">
+        <v>0.240403</v>
+      </c>
+      <c r="O12">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P12">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q12">
+        <v>0.003832611471777777</v>
+      </c>
+      <c r="R12">
+        <v>0.034493503246</v>
+      </c>
+      <c r="S12">
+        <v>1.949309904465913E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.949309904465913E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.544459888186948</v>
-      </c>
-      <c r="H7">
-        <v>0.544459888186948</v>
-      </c>
-      <c r="I7">
-        <v>0.02901777029321264</v>
-      </c>
-      <c r="J7">
-        <v>0.02901777029321264</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.63157409818507</v>
-      </c>
-      <c r="N7">
-        <v>1.63157409818507</v>
-      </c>
-      <c r="O7">
-        <v>0.1751866930957443</v>
-      </c>
-      <c r="P7">
-        <v>0.1751866930957443</v>
-      </c>
-      <c r="Q7">
-        <v>0.8883266510665637</v>
-      </c>
-      <c r="R7">
-        <v>0.8883266510665637</v>
-      </c>
-      <c r="S7">
-        <v>0.005083527218679849</v>
-      </c>
-      <c r="T7">
-        <v>0.005083527218679849</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.143482</v>
+      </c>
+      <c r="I13">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J13">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.647982</v>
+      </c>
+      <c r="N13">
+        <v>22.943946</v>
+      </c>
+      <c r="O13">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P13">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q13">
+        <v>0.3657825844413333</v>
+      </c>
+      <c r="R13">
+        <v>3.292043259972</v>
+      </c>
+      <c r="S13">
+        <v>0.001860411941004525</v>
+      </c>
+      <c r="T13">
+        <v>0.001860411941004525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.143482</v>
+      </c>
+      <c r="I14">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J14">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.013618</v>
+      </c>
+      <c r="O14">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P14">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q14">
+        <v>0.0002171042084444445</v>
+      </c>
+      <c r="R14">
+        <v>0.001953937876</v>
+      </c>
+      <c r="S14">
+        <v>1.104216764308965E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.104216764308965E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.143482</v>
+      </c>
+      <c r="I15">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J15">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.027799</v>
+      </c>
+      <c r="O15">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P15">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q15">
+        <v>0.0004431840131111111</v>
+      </c>
+      <c r="R15">
+        <v>0.003988656118</v>
+      </c>
+      <c r="S15">
+        <v>2.254084434647152E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.254084434647152E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04782733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.143482</v>
+      </c>
+      <c r="I16">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="J16">
+        <v>0.002399830749729425</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.123561</v>
+      </c>
+      <c r="N16">
+        <v>6.370683</v>
+      </c>
+      <c r="O16">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P16">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q16">
+        <v>0.1015642598006667</v>
+      </c>
+      <c r="R16">
+        <v>0.9140783382059999</v>
+      </c>
+      <c r="S16">
+        <v>0.0005165674084812843</v>
+      </c>
+      <c r="T16">
+        <v>0.0005165674084812843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.643932</v>
+      </c>
+      <c r="I17">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J17">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N17">
+        <v>0.240403</v>
+      </c>
+      <c r="O17">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P17">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q17">
+        <v>0.04391179828844444</v>
+      </c>
+      <c r="R17">
+        <v>0.3952061845959999</v>
+      </c>
+      <c r="S17">
+        <v>0.0002233404141194337</v>
+      </c>
+      <c r="T17">
+        <v>0.0002233404141194336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.643932</v>
+      </c>
+      <c r="I18">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J18">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.647982</v>
+      </c>
+      <c r="N18">
+        <v>22.943946</v>
+      </c>
+      <c r="O18">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P18">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q18">
+        <v>4.190920781741333</v>
+      </c>
+      <c r="R18">
+        <v>37.718287035672</v>
+      </c>
+      <c r="S18">
+        <v>0.0213155010593625</v>
+      </c>
+      <c r="T18">
+        <v>0.0213155010593625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.643932</v>
+      </c>
+      <c r="I19">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J19">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.013618</v>
+      </c>
+      <c r="O19">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P19">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q19">
+        <v>0.002487451775111111</v>
+      </c>
+      <c r="R19">
+        <v>0.022387065976</v>
+      </c>
+      <c r="S19">
+        <v>1.265146341550833E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.265146341550832E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.643932</v>
+      </c>
+      <c r="I20">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J20">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.027799</v>
+      </c>
+      <c r="O20">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P20">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q20">
+        <v>0.005077740629777778</v>
+      </c>
+      <c r="R20">
+        <v>0.045699665668</v>
+      </c>
+      <c r="S20">
+        <v>2.582596794593303E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.582596794593302E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5479773333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.643932</v>
+      </c>
+      <c r="I21">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="J21">
+        <v>0.02749584313059612</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.123561</v>
+      </c>
+      <c r="N21">
+        <v>6.370683</v>
+      </c>
+      <c r="O21">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P21">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q21">
+        <v>1.163663293950667</v>
+      </c>
+      <c r="R21">
+        <v>10.472969645556</v>
+      </c>
+      <c r="S21">
+        <v>0.005918524225752741</v>
+      </c>
+      <c r="T21">
+        <v>0.00591852422575274</v>
       </c>
     </row>
   </sheetData>
